--- a/templates/dataplant/Metagenomics_-_Re-analysis.xlsx
+++ b/templates/dataplant/Metagenomics_-_Re-analysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9B7C1B-12CF-40D1-A1BE-92CCA2E43B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357EA8B-3815-4D25-A2F6-2F969BB3041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_template" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -271,6 +271,57 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000008</t>
+  </si>
+  <si>
+    <t>The Microbiome of Brazilian Mangrove Sediments as Revealed by Metagenomics</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0038600</t>
+  </si>
+  <si>
+    <t>mgm4451033.3</t>
+  </si>
+  <si>
+    <t>mangrove metagenome</t>
+  </si>
+  <si>
+    <t>2011-08-20</t>
+  </si>
+  <si>
+    <t>mangrove biome</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1284368</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000181</t>
+  </si>
+  <si>
+    <t>tropical mangrove</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000403</t>
+  </si>
+  <si>
+    <t>estuarine mud</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_00002160</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16364</t>
+  </si>
+  <si>
+    <t>14° 14´6.0144"S, 51°55´31.0152"W</t>
   </si>
 </sst>
 </file>
@@ -306,13 +357,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -383,23 +478,23 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:1000233)"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:1000233)"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Characteristic [Organism]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (NCIT:C14250)"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (NCIT:C14250)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Characteristic [Collection Date]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (NCIT:C14250)" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (NCIT:C14250)" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Characteristic [Collection Date]" dataDxfId="13"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (NCIT:C81286)"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (NCIT:C81286)"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Characteristic [biome]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (ENVO:00000428)"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (ENVO:00000428)"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Characteristic [environment (feature)]"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (DPBO:0002008)"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (DPBO:0002008)"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Characteristic [environmental material]"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (ENVO:00010483)"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (ENVO:00010483)"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Characteristic [geographic location]"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (GAZ:00000448)"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (GAZ:00000448)"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (ENVO:00000428)" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (ENVO:00000428)" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Characteristic [environment (feature)]" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (DPBO:0002008)" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (DPBO:0002008)" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Characteristic [environmental material]" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (ENVO:00010483)" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (ENVO:00010483)" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Characteristic [geographic location]" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (GAZ:00000448)" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (GAZ:00000448)" dataDxfId="0"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Characteristic [GPS coordinates]"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (AGRO:00000572)"/>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (AGRO:00000572)"/>
@@ -712,18 +807,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -731,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -739,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -747,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -755,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -763,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -771,32 +866,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -804,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -812,7 +907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -820,12 +915,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -833,7 +928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -841,12 +936,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -854,17 +949,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -872,7 +967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -880,22 +975,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -913,11 +1008,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1036,12 +1137,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -1050,7 +1151,7 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -1068,7 +1169,7 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
         <v>81</v>
@@ -1077,16 +1178,16 @@
         <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="R2" t="s">
         <v>81</v>
@@ -1095,43 +1196,43 @@
         <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="AF2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="s">
         <v>81</v>
@@ -1139,8 +1240,8 @@
       <c r="AH2" t="s">
         <v>81</v>
       </c>
-      <c r="AI2" t="s">
-        <v>81</v>
+      <c r="AI2">
+        <v>0.3</v>
       </c>
       <c r="AJ2" t="s">
         <v>82</v>

--- a/templates/dataplant/Metagenomics_-_Re-analysis.xlsx
+++ b/templates/dataplant/Metagenomics_-_Re-analysis.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357EA8B-3815-4D25-A2F6-2F969BB3041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="Metagenomics" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Metagenomics" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -36,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -54,6 +50,9 @@
     <t>Table</t>
   </si>
   <si>
+    <t>Metagenomics</t>
+  </si>
+  <si>
     <t>ERS</t>
   </si>
   <si>
@@ -72,9 +71,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Metagenomics</t>
-  </si>
-  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
@@ -156,13 +152,13 @@
     <t>Term Accession Number (NCIT:C183337)</t>
   </si>
   <si>
-    <t>Characteristic [Digital Object Identifier (DOI)]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1001922)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1001922)</t>
+    <t>Characteristic [Digital Object Identifier]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C71462)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C71462)</t>
   </si>
   <si>
     <t>Characteristic [SRA accession field]</t>
@@ -183,13 +179,13 @@
     <t>Term Accession Number (DPBO:1000233)</t>
   </si>
   <si>
-    <t>Characteristic [Organism]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NCIT:C14250)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C14250)</t>
+    <t>Characteristic [organism]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
   </si>
   <si>
     <t>Characteristic [Collection Date]</t>
@@ -246,16 +242,16 @@
     <t>Term Accession Number (AGRO:00000572)</t>
   </si>
   <si>
-    <t>Parameter [Depth]</t>
+    <t>Characteristic [Sampling depth]</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Term Source REF (NCIT:C25333)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C25333)</t>
+    <t>Term Source REF (DPBO:0000113)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000113)</t>
   </si>
   <si>
     <t>Output [Sample Name]</t>
@@ -264,77 +260,80 @@
     <t/>
   </si>
   <si>
+    <t>The Microbiome of Brazilian Mangrove Sediments as Revealed by Metagenomics</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0038600</t>
+  </si>
+  <si>
+    <t>mgm4451033.3</t>
+  </si>
+  <si>
+    <t>mangrove metagenome</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1284368</t>
+  </si>
+  <si>
+    <t>2011-08-20</t>
+  </si>
+  <si>
+    <t>mangrove biome</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:01000181</t>
+  </si>
+  <si>
+    <t>tropical mangrove</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:01000403</t>
+  </si>
+  <si>
+    <t>estuarine mud</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:00002160</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C16364</t>
+  </si>
+  <si>
+    <t>14° 14´6.0144"S, 51°55´31.0152"W</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
     <t>meter</t>
   </si>
   <si>
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000008</t>
-  </si>
-  <si>
-    <t>The Microbiome of Brazilian Mangrove Sediments as Revealed by Metagenomics</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0038600</t>
-  </si>
-  <si>
-    <t>mgm4451033.3</t>
-  </si>
-  <si>
-    <t>mangrove metagenome</t>
-  </si>
-  <si>
-    <t>2011-08-20</t>
-  </si>
-  <si>
-    <t>mangrove biome</t>
-  </si>
-  <si>
-    <t>NCBITaxon</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCBITaxon_1284368</t>
-  </si>
-  <si>
-    <t>ENVO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01000181</t>
-  </si>
-  <si>
-    <t>tropical mangrove</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01000403</t>
-  </si>
-  <si>
-    <t>estuarine mud</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_00002160</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16364</t>
-  </si>
-  <si>
-    <t>14° 14´6.0144"S, 51°55´31.0152"W</t>
+    <t>https://bioregistry.io/UO:0000008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,57 +356,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:AM2">
-  <autoFilter ref="A1:AM2" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AM2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AM2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -464,45 +419,45 @@
     <filterColumn colId="38" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Characteristic [Publication Title]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (NCIT:C183337)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (NCIT:C183337)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Characteristic [Digital Object Identifier (DOI)]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (MS:1001922)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (MS:1001922)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Characteristic [SRA accession field]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (GENEPIO:0001142)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (GENEPIO:0001142)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Characteristic [MG-RAST accession number field]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:1000233)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:1000233)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Characteristic [Organism]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (NCIT:C14250)" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (NCIT:C14250)" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Characteristic [Collection Date]" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (NCIT:C81286)"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (NCIT:C81286)"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Characteristic [biome]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (ENVO:00000428)" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (ENVO:00000428)" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Characteristic [environment (feature)]" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (DPBO:0002008)" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (DPBO:0002008)" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Characteristic [environmental material]" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (ENVO:00010483)" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (ENVO:00010483)" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Characteristic [geographic location]" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (GAZ:00000448)" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (GAZ:00000448)" dataDxfId="0"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Characteristic [GPS coordinates]"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (AGRO:00000572)"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (AGRO:00000572)"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Parameter [Depth]"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Unit"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Source REF (NCIT:C25333)"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Term Accession Number (NCIT:C25333)"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Output [Sample Name]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Characteristic [Publication Title]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (NCIT:C183337)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (NCIT:C183337)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [Digital Object Identifier]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (NCIT:C71462)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (NCIT:C71462)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [SRA accession field]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (GENEPIO:0001142)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (GENEPIO:0001142)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [MG-RAST accession number field]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:1000233)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:1000233)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [organism]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Characteristic [Collection Date]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (NCIT:C81286)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (NCIT:C81286)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Characteristic [biome]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (ENVO:00000428)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (ENVO:00000428)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Characteristic [environment (feature)]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (DPBO:0002008)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (DPBO:0002008)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Characteristic [environmental material]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (ENVO:00010483)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (ENVO:00010483)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Characteristic [geographic location]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (GAZ:00000448)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (GAZ:00000448)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Characteristic [GPS coordinates]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (AGRO:00000572)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (AGRO:00000572)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Characteristic [Sampling depth]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Unit" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Source REF (DPBO:0000113)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Term Accession Number (DPBO:0000113)" totalsRowFunction="none"/>
+    <tableColumn id="39" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -804,21 +759,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -826,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -834,7 +784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -842,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -850,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -858,48 +808,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -907,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -915,12 +865,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -928,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -936,12 +886,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -949,17 +899,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -967,7 +917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -975,22 +925,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1000,25 +950,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1137,120 +1078,120 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>86</v>
       </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AD2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AF2" t="s">
         <v>98</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AJ2" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AK2" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2">
-        <v>0.3</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>83</v>
-      </c>
       <c r="AL2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="AM2" t="s">
         <v>81</v>
@@ -1258,7 +1199,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
